--- a/meta/7-b-1-1a.xlsx
+++ b/meta/7-b-1-1a.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EE72BD-F7FD-4582-9959-AEAC110314E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.Б.1.1а" sheetId="2" r:id="rId1"/>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,12 +256,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -305,7 +312,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -317,18 +324,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -357,11 +352,20 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -377,9 +381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +421,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -452,6 +456,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -487,9 +508,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,228 +700,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="350.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:3" ht="350.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="B26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
